--- a/Prototypes/Oats/Observed/SowingDateOns.xlsx
+++ b/Prototypes/Oats/Observed/SowingDateOns.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Flowering_Flag</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Oats.Phenology.FloweringDAS</t>
   </si>
   <si>
-    <t>Oats.Structure.FinalLeafNumber</t>
-  </si>
-  <si>
     <t>SowingDate2002SowHokMar</t>
   </si>
   <si>
@@ -117,6 +114,30 @@
   </si>
   <si>
     <t>SowingDate2004SowDrumSep</t>
+  </si>
+  <si>
+    <t>Sow</t>
+  </si>
+  <si>
+    <t>HokMar</t>
+  </si>
+  <si>
+    <t>HokMay</t>
+  </si>
+  <si>
+    <t>HokSep</t>
+  </si>
+  <si>
+    <t>DrumMar</t>
+  </si>
+  <si>
+    <t>DrumMay</t>
+  </si>
+  <si>
+    <t>DrumSep</t>
+  </si>
+  <si>
+    <t>Oats.Structure.MainStemFinalNodeNumber</t>
   </si>
 </sst>
 </file>
@@ -458,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="E10" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +492,7 @@
     <col min="9" max="9" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -482,7 +503,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -505,8 +526,11 @@
       <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -532,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2">
         <f>E2-C2</f>
@@ -542,8 +566,11 @@
         <f>F2-C2</f>
         <v>246</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -569,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J19" si="0">E3-C3</f>
@@ -579,8 +606,11 @@
         <f t="shared" ref="K3:K19" si="1">F3-C3</f>
         <v>197</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -606,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
@@ -616,8 +646,11 @@
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -643,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
@@ -653,8 +686,11 @@
         <f t="shared" si="1"/>
         <v>236</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -680,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
@@ -690,8 +726,11 @@
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -717,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
@@ -727,8 +766,11 @@
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -754,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
@@ -764,8 +806,11 @@
         <f t="shared" si="1"/>
         <v>229</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -791,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
@@ -801,8 +846,11 @@
         <f t="shared" si="1"/>
         <v>184</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -828,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
@@ -838,8 +886,11 @@
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -865,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
@@ -875,8 +926,11 @@
         <f t="shared" si="1"/>
         <v>242</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -902,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
@@ -912,8 +966,11 @@
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -939,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
@@ -949,8 +1006,11 @@
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -976,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
@@ -986,8 +1046,11 @@
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1013,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
@@ -1023,8 +1086,11 @@
         <f t="shared" si="1"/>
         <v>181</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -1050,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
@@ -1060,8 +1126,11 @@
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -1087,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
@@ -1097,8 +1166,11 @@
         <f t="shared" si="1"/>
         <v>227</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -1124,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
@@ -1134,8 +1206,11 @@
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -1161,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
@@ -1170,6 +1245,9 @@
       <c r="K19">
         <f t="shared" si="1"/>
         <v>114</v>
+      </c>
+      <c r="L19" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Prototypes/Oats/Observed/SowingDateOns.xlsx
+++ b/Prototypes/Oats/Observed/SowingDateOns.xlsx
@@ -89,33 +89,6 @@
     <t>SowingDate2004SowHokSep</t>
   </si>
   <si>
-    <t>SowingDate2002SowDrumMar</t>
-  </si>
-  <si>
-    <t>SowingDate2002SowDrumMay</t>
-  </si>
-  <si>
-    <t>SowingDate2002SowDrumSep</t>
-  </si>
-  <si>
-    <t>SowingDate2003SowDrumMar</t>
-  </si>
-  <si>
-    <t>SowingDate2003SowDrumMay</t>
-  </si>
-  <si>
-    <t>SowingDate2003SowDrumSep</t>
-  </si>
-  <si>
-    <t>SowingDate2004SowDrumMar</t>
-  </si>
-  <si>
-    <t>SowingDate2004SowDrumMay</t>
-  </si>
-  <si>
-    <t>SowingDate2004SowDrumSep</t>
-  </si>
-  <si>
     <t>Sow</t>
   </si>
   <si>
@@ -128,16 +101,43 @@
     <t>HokSep</t>
   </si>
   <si>
-    <t>DrumMar</t>
-  </si>
-  <si>
-    <t>DrumMay</t>
-  </si>
-  <si>
-    <t>DrumSep</t>
-  </si>
-  <si>
     <t>Oats.Structure.MainStemFinalNodeNumber</t>
+  </si>
+  <si>
+    <t>SowingDate2002SowStamMar</t>
+  </si>
+  <si>
+    <t>StamMar</t>
+  </si>
+  <si>
+    <t>SowingDate2002SowStamMay</t>
+  </si>
+  <si>
+    <t>StamMay</t>
+  </si>
+  <si>
+    <t>SowingDate2002SowStamSep</t>
+  </si>
+  <si>
+    <t>StamSep</t>
+  </si>
+  <si>
+    <t>SowingDate2003SowStamMar</t>
+  </si>
+  <si>
+    <t>SowingDate2003SowStamMay</t>
+  </si>
+  <si>
+    <t>SowingDate2003SowStamSep</t>
+  </si>
+  <si>
+    <t>SowingDate2004SowStamMar</t>
+  </si>
+  <si>
+    <t>SowingDate2004SowStamMay</t>
+  </si>
+  <si>
+    <t>SowingDate2004SowStamSep</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E9:E10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -527,7 +527,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -567,7 +567,7 @@
         <v>246</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -607,7 +607,7 @@
         <v>197</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>104</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
         <v>236</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>190</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -767,7 +767,7 @@
         <v>115</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
         <v>229</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
         <v>184</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -887,7 +887,7 @@
         <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -916,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
@@ -927,7 +927,7 @@
         <v>242</v>
       </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -956,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
@@ -967,7 +967,7 @@
         <v>182</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
@@ -1007,7 +1007,7 @@
         <v>94</v>
       </c>
       <c r="L13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
@@ -1047,7 +1047,7 @@
         <v>231</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
@@ -1087,7 +1087,7 @@
         <v>181</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1116,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
@@ -1127,7 +1127,7 @@
         <v>103</v>
       </c>
       <c r="L16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1156,18 +1156,18 @@
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+      <c r="L17" t="s">
         <v>27</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>203</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="1"/>
-        <v>227</v>
-      </c>
-      <c r="L17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
@@ -1207,7 +1207,7 @@
         <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1236,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
@@ -1247,7 +1247,7 @@
         <v>114</v>
       </c>
       <c r="L19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
